--- a/review_table.xlsx
+++ b/review_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AML_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE90712-B571-4B11-B1E9-C9C010244121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3767D-A23F-4590-84F3-6116F300F437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8734556B-C2B0-4003-BAFF-F4F33DC3883D}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B1ABB-B1CF-42BE-9F2B-5211F50702F3}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
